--- a/SOFTWARE/Thermal/1D forloops/Validation/layup2.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Validation/layup2.xlsx
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SOFTWARE/Thermal/1D forloops/Validation/layup2.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Validation/layup2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="10500" windowHeight="2928"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="10500" windowHeight="2868"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>t[s]</t>
   </si>
@@ -52,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X36"/>
+  <dimension ref="B2:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:J53"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65:M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1839,6 +1843,1116 @@
       </c>
       <c r="L36">
         <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>D15+273</f>
+        <v>333</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:L40" si="0">E15+273</f>
+        <v>313</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:L61" si="1">D16+273</f>
+        <v>643</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>753</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>913</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>788</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>951</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>698</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>793</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>963</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>738</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>818</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>970</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>758</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>858</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>783</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>893</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>978</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>798</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>80</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>898</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>473</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>981</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>808</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>503</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>983</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>818</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>773</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>773</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>110</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>673</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>478</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>663</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>513</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>513</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>120</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>608</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>596</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>633</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>130</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>553</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>598</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>140</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>521</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>473</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>160</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>483</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>170</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>533</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>533</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>180</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>190</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>200</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>473</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>210</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>428</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>513</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>0.02</v>
+      </c>
+      <c r="D65">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E65">
+        <v>1362</v>
+      </c>
+      <c r="F65">
+        <v>1130</v>
+      </c>
+      <c r="G65">
+        <v>0.443</v>
+      </c>
+      <c r="I65">
+        <f>C65*25.4</f>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J65">
+        <f>D65</f>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K65" s="1">
+        <v>858</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" ref="L65:M68" si="2">F65</f>
+        <v>1130</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0.25</v>
+      </c>
+      <c r="D66">
+        <v>0.03</v>
+      </c>
+      <c r="E66">
+        <v>110</v>
+      </c>
+      <c r="F66">
+        <v>1046</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>C66*25.4</f>
+        <v>6.35</v>
+      </c>
+      <c r="J66">
+        <f>D66</f>
+        <v>0.03</v>
+      </c>
+      <c r="K66" s="1">
+        <v>110</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="2"/>
+        <v>1046</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>1E-3</v>
+      </c>
+      <c r="D67">
+        <v>0.12</v>
+      </c>
+      <c r="E67">
+        <v>1468</v>
+      </c>
+      <c r="F67">
+        <v>1022</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>C67*25.4</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="J67">
+        <f>D67</f>
+        <v>0.12</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1468</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" si="2"/>
+        <v>1022</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1E-3</v>
+      </c>
+      <c r="D68">
+        <v>0.12</v>
+      </c>
+      <c r="E68">
+        <v>1468</v>
+      </c>
+      <c r="F68">
+        <v>1022</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>C68*25.4</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="J68">
+        <f>D68</f>
+        <v>0.12</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1468</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" si="2"/>
+        <v>1022</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
